--- a/data/II. ESPACIAL/02_DATA_ATRIBUTOS/BD_MNSA_FRONTERA_AGRICOLA_PI1.xlsx
+++ b/data/II. ESPACIAL/02_DATA_ATRIBUTOS/BD_MNSA_FRONTERA_AGRICOLA_PI1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e2dd593f2c2bc76/MAPSITE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e2dd593f2c2bc76/MAPSITE/II. ESPACIAL/02_DATA_ATRIBUTOS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{F1897807-72F7-4B17-B867-B934A762C540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE977A70-1C25-40A4-BB0E-4692B3AF39EE}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{F1897807-72F7-4B17-B867-B934A762C540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC6CB9D8-D49F-4D73-A558-622D83732784}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MNSA_PI1_DETALLE" sheetId="1" r:id="rId1"/>
@@ -2015,7 +2015,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2032,7 +2032,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2042,15 +2041,11 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2079,6 +2074,910 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.29575678040244974"/>
+          <c:y val="4.1666666666666664E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MNSA_PI1_RESUMEN_DEP!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SUPERFICIE AGRÍCOLA (HA)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>MNSA_PI1_RESUMEN_DEP!$B$2:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>San Martín</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cajamarca</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Huánuco</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Junín</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Ancash</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Pasco</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Madre de Dios</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>MNSA_PI1_RESUMEN_DEP!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1454487.9946999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1164286.5178</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>893613.71129999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>599397.05630000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>358029.85389999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>216606.4798</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>88133.710500000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D9F3-4D2D-B948-F4861E31533A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1761493583"/>
+        <c:axId val="1761488783"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1761493583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1761488783"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1761488783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1761493583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF35A5B7-F6B4-F85F-7BEF-2EC544B7D792}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2383,7 +3282,7 @@
   </sheetPr>
   <dimension ref="A1:J620"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A540" workbookViewId="0">
       <selection activeCell="H620" sqref="H620"/>
     </sheetView>
   </sheetViews>
@@ -22178,10 +23077,7 @@
       </c>
     </row>
     <row r="620" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H620" s="7">
-        <f>SUM(H2:H618)</f>
-        <v>4774555.3243371854</v>
-      </c>
+      <c r="H620" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J618" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
@@ -22203,10 +23099,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9FD36E-499A-4D87-9C78-DE58B2C40024}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22220,193 +23116,167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>619</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>616</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>627</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>628</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>629</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="14">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>620</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>1454487.9946999999</v>
       </c>
-      <c r="D2" s="11">
-        <f>(C2/$C$9)</f>
+      <c r="D2" s="10">
         <v>0.30463318485334406</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <v>10</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="14">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>621</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>1164286.5178</v>
       </c>
-      <c r="D3" s="11">
-        <f>(C3/$C$9)</f>
+      <c r="D3" s="10">
         <v>0.24385234618067742</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>13</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="14">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>622</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>893613.71129999997</v>
       </c>
-      <c r="D4" s="11">
-        <f>(C4/$C$9)</f>
+      <c r="D4" s="10">
         <v>0.18716166231271247</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>11</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="14">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>623</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>599397.05630000005</v>
       </c>
-      <c r="D5" s="11">
-        <f>(C5/$C$9)</f>
+      <c r="D5" s="10">
         <v>0.12553987033083086</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>9</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="14">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="12">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>624</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>358029.85389999999</v>
       </c>
-      <c r="D6" s="11">
-        <f>(C6/$C$9)</f>
+      <c r="D6" s="10">
         <v>7.4987057344966662E-2</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>20</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="14">
-        <v>6</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="12">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>625</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>216606.4798</v>
       </c>
-      <c r="D7" s="11">
-        <f>(C7/$C$9)</f>
+      <c r="D7" s="10">
         <v>4.5366838393847038E-2</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>3</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="14">
+      <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>626</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>88133.710500000001</v>
       </c>
-      <c r="D8" s="11">
-        <f>(C8/$C$9)</f>
+      <c r="D8" s="10">
         <v>1.8459040583621543E-2</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>3</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8">
-        <f>SUM(C2:C8)</f>
-        <v>4774555.3242999995</v>
-      </c>
-      <c r="D9" s="12">
-        <f>SUM(D2:D8)</f>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="E9" s="8">
-        <f>SUM(E2:E8)</f>
-        <v>69</v>
-      </c>
-      <c r="F9" s="8">
-        <f>SUM(F2:F8)</f>
-        <v>613</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>